--- a/comparisons_symbiotic_correlated_genes.xlsx
+++ b/comparisons_symbiotic_correlated_genes.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="583">
   <si>
     <t>Function</t>
   </si>
@@ -1806,6 +1806,9 @@
   </si>
   <si>
     <t>SM147A_S13 (GENOSPECIES C)</t>
+  </si>
+  <si>
+    <t>Genes highly correlated with nodx and nodN</t>
   </si>
 </sst>
 </file>
@@ -2156,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T133"/>
+  <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2178,6 +2181,11 @@
     <col min="20" max="20" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>582</v>
+      </c>
+    </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>455</v>
